--- a/Auswertungen/viscousVergleich.xlsx
+++ b/Auswertungen/viscousVergleich.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>dg2</t>
   </si>
@@ -38,13 +38,31 @@
   <si>
     <t>C_D</t>
   </si>
+  <si>
+    <t>Re=10</t>
+  </si>
+  <si>
+    <t>C_L</t>
+  </si>
+  <si>
+    <t>Re=20</t>
+  </si>
+  <si>
+    <t>Re=40</t>
+  </si>
+  <si>
+    <t>Re=100</t>
+  </si>
+  <si>
+    <t>Re=200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,9 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,6 +110,744 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Re = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dg1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2814898316666801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3340182853658602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4523769115044201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dg2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4371912862519101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5396515723748498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.62387909163346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="79374976"/>
+        <c:axId val="79373440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79374976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79373440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79373440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79374976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Re = 20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dg1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6594440266666659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.631744521212122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.679607550588236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dg2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6649472589804499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69627622221172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7373716836795201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lawrence</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2.06</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2.06</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.06</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="96349568"/>
+        <c:axId val="96348032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96349568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96348032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96348032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96349568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Re = 40</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dg1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.279346227586204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2248050955555561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2096254537634401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dg2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.21218999360671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2053583454268899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.213761275770924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lawrence</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1.605</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.605</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.605</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113215360"/>
+        <c:axId val="113213824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113215360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113213824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="113213824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113215360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M16"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,8 +1149,8 @@
     <col min="3" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
@@ -427,7 +1185,7 @@
       <c r="I2" s="1">
         <v>1.14074491583334</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L2" t="s">
@@ -458,7 +1216,7 @@
       <c r="I3" s="1">
         <v>0.82972201333333295</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>20</v>
       </c>
       <c r="L3">
@@ -489,7 +1247,7 @@
       <c r="I4" s="1">
         <v>0.63967311379310199</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>40</v>
       </c>
       <c r="L4">
@@ -517,7 +1275,7 @@
       <c r="I5" s="1">
         <v>0.50702516933333297</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>100</v>
       </c>
       <c r="L5">
@@ -542,7 +1300,7 @@
       <c r="I6" s="1">
         <v>0.44471228796296303</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>200</v>
       </c>
       <c r="L6">
@@ -748,9 +1506,321 @@
         <v>0.462573588425926</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.2814898316666801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.3340182853658602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.4523769115044201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.4371912862519101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.5396515723748498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.62387909163346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.6594440266666659</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.1061700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.631744521212122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <v>128</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.679607550588236</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.2127600000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.6649472589804499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.69627622221172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>128</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.7373716836795201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.279346227586204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.2248050955555561</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.2096254537634401</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.89846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.21218999360671</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.4379999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.2053583454268899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.213761275770924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.0140503386666659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.95032984581497804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>128</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.93527155044247801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.90139405782257898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.96563564230366405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>128</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.92392141959183605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.88942457592592605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.97636716705882398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>128</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.92514717685185199</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.90967800887629802</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0845761595907919</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>128</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.1255609506172839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
